--- a/1.2/Covid19Tab/doc/fields.xlsx
+++ b/1.2/Covid19Tab/doc/fields.xlsx
@@ -1126,7 +1126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1172,9 +1172,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -1459,8 +1456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2701,9 +2698,11 @@
       </c>
     </row>
     <row r="74" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="31"/>
-      <c r="B74" s="32"/>
-      <c r="C74" s="33" t="s">
+      <c r="A74" s="6">
+        <v>72</v>
+      </c>
+      <c r="B74" s="31"/>
+      <c r="C74" s="32" t="s">
         <v>287</v>
       </c>
       <c r="D74" s="9" t="s">
@@ -2714,9 +2713,11 @@
       </c>
     </row>
     <row r="75" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="31"/>
-      <c r="B75" s="32"/>
-      <c r="C75" s="33" t="s">
+      <c r="A75" s="6">
+        <v>73</v>
+      </c>
+      <c r="B75" s="31"/>
+      <c r="C75" s="32" t="s">
         <v>288</v>
       </c>
       <c r="D75" s="9" t="s">
@@ -2727,9 +2728,11 @@
       </c>
     </row>
     <row r="76" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="31"/>
-      <c r="B76" s="32"/>
-      <c r="C76" s="33" t="s">
+      <c r="A76" s="6">
+        <v>74</v>
+      </c>
+      <c r="B76" s="31"/>
+      <c r="C76" s="32" t="s">
         <v>173</v>
       </c>
       <c r="D76" s="9" t="s">
@@ -2740,9 +2743,11 @@
       </c>
     </row>
     <row r="77" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="31"/>
-      <c r="B77" s="32"/>
-      <c r="C77" s="33" t="s">
+      <c r="A77" s="6">
+        <v>75</v>
+      </c>
+      <c r="B77" s="31"/>
+      <c r="C77" s="32" t="s">
         <v>289</v>
       </c>
       <c r="D77" s="9" t="s">
@@ -2753,9 +2758,11 @@
       </c>
     </row>
     <row r="78" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="31"/>
-      <c r="B78" s="32"/>
-      <c r="C78" s="33" t="s">
+      <c r="A78" s="6">
+        <v>76</v>
+      </c>
+      <c r="B78" s="31"/>
+      <c r="C78" s="32" t="s">
         <v>270</v>
       </c>
       <c r="D78" s="9" t="s">
@@ -2766,9 +2773,11 @@
       </c>
     </row>
     <row r="79" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="31"/>
-      <c r="B79" s="32"/>
-      <c r="C79" s="33" t="s">
+      <c r="A79" s="6">
+        <v>77</v>
+      </c>
+      <c r="B79" s="31"/>
+      <c r="C79" s="32" t="s">
         <v>271</v>
       </c>
       <c r="D79" s="9" t="s">
@@ -2779,9 +2788,11 @@
       </c>
     </row>
     <row r="80" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="31"/>
-      <c r="B80" s="32"/>
-      <c r="C80" s="33" t="s">
+      <c r="A80" s="6">
+        <v>78</v>
+      </c>
+      <c r="B80" s="31"/>
+      <c r="C80" s="32" t="s">
         <v>267</v>
       </c>
       <c r="D80" s="9" t="s">
@@ -2792,9 +2803,11 @@
       </c>
     </row>
     <row r="81" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="31"/>
-      <c r="B81" s="32"/>
-      <c r="C81" s="33" t="s">
+      <c r="A81" s="6">
+        <v>79</v>
+      </c>
+      <c r="B81" s="31"/>
+      <c r="C81" s="32" t="s">
         <v>274</v>
       </c>
       <c r="D81" s="9" t="s">
@@ -2805,9 +2818,11 @@
       </c>
     </row>
     <row r="82" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="31"/>
-      <c r="B82" s="32"/>
-      <c r="C82" s="33" t="s">
+      <c r="A82" s="6">
+        <v>80</v>
+      </c>
+      <c r="B82" s="31"/>
+      <c r="C82" s="32" t="s">
         <v>290</v>
       </c>
       <c r="D82" s="9" t="s">
@@ -2818,9 +2833,11 @@
       </c>
     </row>
     <row r="83" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="31"/>
-      <c r="B83" s="32"/>
-      <c r="C83" s="33" t="s">
+      <c r="A83" s="6">
+        <v>81</v>
+      </c>
+      <c r="B83" s="31"/>
+      <c r="C83" s="32" t="s">
         <v>291</v>
       </c>
       <c r="D83" s="9" t="s">
@@ -2831,9 +2848,11 @@
       </c>
     </row>
     <row r="84" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="31"/>
-      <c r="B84" s="32"/>
-      <c r="C84" s="33" t="s">
+      <c r="A84" s="6">
+        <v>82</v>
+      </c>
+      <c r="B84" s="31"/>
+      <c r="C84" s="32" t="s">
         <v>292</v>
       </c>
       <c r="D84" s="9" t="s">
@@ -2844,9 +2863,11 @@
       </c>
     </row>
     <row r="85" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="31"/>
-      <c r="B85" s="32"/>
-      <c r="C85" s="33" t="s">
+      <c r="A85" s="6">
+        <v>83</v>
+      </c>
+      <c r="B85" s="31"/>
+      <c r="C85" s="32" t="s">
         <v>293</v>
       </c>
       <c r="D85" s="9" t="s">
@@ -2857,9 +2878,11 @@
       </c>
     </row>
     <row r="86" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="31"/>
-      <c r="B86" s="32"/>
-      <c r="C86" s="33" t="s">
+      <c r="A86" s="6">
+        <v>84</v>
+      </c>
+      <c r="B86" s="31"/>
+      <c r="C86" s="32" t="s">
         <v>294</v>
       </c>
       <c r="D86" s="9" t="s">
@@ -2870,9 +2893,11 @@
       </c>
     </row>
     <row r="87" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="31"/>
-      <c r="B87" s="32"/>
-      <c r="C87" s="33" t="s">
+      <c r="A87" s="6">
+        <v>85</v>
+      </c>
+      <c r="B87" s="31"/>
+      <c r="C87" s="32" t="s">
         <v>295</v>
       </c>
       <c r="D87" s="9" t="s">
@@ -2883,9 +2908,11 @@
       </c>
     </row>
     <row r="88" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="31"/>
-      <c r="B88" s="32"/>
-      <c r="C88" s="33" t="s">
+      <c r="A88" s="6">
+        <v>86</v>
+      </c>
+      <c r="B88" s="31"/>
+      <c r="C88" s="32" t="s">
         <v>296</v>
       </c>
       <c r="D88" s="9" t="s">
@@ -2896,9 +2923,11 @@
       </c>
     </row>
     <row r="89" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="31"/>
-      <c r="B89" s="32"/>
-      <c r="C89" s="33" t="s">
+      <c r="A89" s="6">
+        <v>87</v>
+      </c>
+      <c r="B89" s="31"/>
+      <c r="C89" s="32" t="s">
         <v>261</v>
       </c>
       <c r="D89" s="9" t="s">
@@ -2909,9 +2938,11 @@
       </c>
     </row>
     <row r="90" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="31"/>
-      <c r="B90" s="32"/>
-      <c r="C90" s="33" t="s">
+      <c r="A90" s="6">
+        <v>88</v>
+      </c>
+      <c r="B90" s="31"/>
+      <c r="C90" s="32" t="s">
         <v>297</v>
       </c>
       <c r="D90" s="9" t="s">
@@ -2922,9 +2953,11 @@
       </c>
     </row>
     <row r="91" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="31"/>
-      <c r="B91" s="32"/>
-      <c r="C91" s="33" t="s">
+      <c r="A91" s="6">
+        <v>89</v>
+      </c>
+      <c r="B91" s="31"/>
+      <c r="C91" s="32" t="s">
         <v>298</v>
       </c>
       <c r="D91" s="9" t="s">
@@ -2935,9 +2968,11 @@
       </c>
     </row>
     <row r="92" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="31"/>
-      <c r="B92" s="32"/>
-      <c r="C92" s="33" t="s">
+      <c r="A92" s="6">
+        <v>90</v>
+      </c>
+      <c r="B92" s="31"/>
+      <c r="C92" s="32" t="s">
         <v>299</v>
       </c>
       <c r="D92" s="9" t="s">
@@ -2948,9 +2983,11 @@
       </c>
     </row>
     <row r="93" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="31"/>
-      <c r="B93" s="32"/>
-      <c r="C93" s="33" t="s">
+      <c r="A93" s="6">
+        <v>91</v>
+      </c>
+      <c r="B93" s="31"/>
+      <c r="C93" s="32" t="s">
         <v>300</v>
       </c>
       <c r="D93" s="9" t="s">
@@ -2961,9 +2998,11 @@
       </c>
     </row>
     <row r="94" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="31"/>
-      <c r="B94" s="32"/>
-      <c r="C94" s="33" t="s">
+      <c r="A94" s="6">
+        <v>92</v>
+      </c>
+      <c r="B94" s="31"/>
+      <c r="C94" s="32" t="s">
         <v>301</v>
       </c>
       <c r="D94" s="9" t="s">
